--- a/medicine/Enfance/Marie-José_Auderset/Marie-José_Auderset.xlsx
+++ b/medicine/Enfance/Marie-José_Auderset/Marie-José_Auderset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Auderset</t>
+          <t>Marie-José_Auderset</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-José Auderset, née le 8 juin 1957[1],[2], est une journaliste et écrivain vaudoise, autrice de livres pour enfants[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-José Auderset, née le 8 juin 1957 est une journaliste et écrivain vaudoise, autrice de livres pour enfants.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Auderset</t>
+          <t>Marie-José_Auderset</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Cressier-sur-Morat dans le canton de Fribourg[1], Marie-José Auderset a une double formation de journaliste et d'éducatrice[1]. 
-Membre de Pro Litteris[1], Marie-José Auderset est l'autrice de livres pour les enfants et de nombreux essais[3], dont plusieurs ouvrages sur le monde des adolescents coécrits avec Jean-Blaise Held[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Cressier-sur-Morat dans le canton de Fribourg, Marie-José Auderset a une double formation de journaliste et d'éducatrice. 
+Membre de Pro Litteris, Marie-José Auderset est l'autrice de livres pour les enfants et de nombreux essais, dont plusieurs ouvrages sur le monde des adolescents coécrits avec Jean-Blaise Held.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Auderset</t>
+          <t>Marie-José_Auderset</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1996 : Prix d'honneur « Honour List » décerné par l' IBBY pour Le Mime[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1996 : Prix d'honneur « Honour List » décerné par l' IBBY pour Le Mime.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Auderset</t>
+          <t>Marie-José_Auderset</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Marie-José Auderset », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Anne-Lise Delacrétaz, Daniel Maggetti, Écrivaines et écrivains d'aujourd'hui, 2002, p. 11
